--- a/assets/Farsi Translations Mobile App.xlsx
+++ b/assets/Farsi Translations Mobile App.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arash/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asigarchi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="208">
   <si>
     <t>English</t>
   </si>
@@ -552,6 +549,105 @@
   </si>
   <si>
     <t xml:space="preserve">صدای آمریکا (VOA) خبرها و اطلاعات درست، متعادل و جامع را برای مخاطبان در سراسر جهان منتشر می کند. صدای آمریکا کار خود را با رادیو در سال ۱۹۴۲ آغاز کرد و اکنون یک سازمان گسترده چند رسانه‌ای است. اکنون صدای آمریکا با مردم از طریق تلفن همراه و شبکه های اجتماعی با بیش از ۴۰ زبان در ارتباط است. </t>
+  </si>
+  <si>
+    <t>Loading…</t>
+  </si>
+  <si>
+    <t>Shown sent content is loading</t>
+  </si>
+  <si>
+    <t>Audio Settings</t>
+  </si>
+  <si>
+    <t>Heading for Audio Settings screen</t>
+  </si>
+  <si>
+    <t>Safe Browsing</t>
+  </si>
+  <si>
+    <t>Label for switching Psiphon on/off</t>
+  </si>
+  <si>
+    <t>Spotlight</t>
+  </si>
+  <si>
+    <t>Label for curated or Spotlight content that will replace the Breaking News content if we decide to go that way</t>
+  </si>
+  <si>
+    <t>Something went wrong</t>
+  </si>
+  <si>
+    <t>If Android or iOS has an issue we want to notify the user that there's an issue instead of showing a blank screen</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>Button for user to reload the app if the something went wrong with the OS</t>
+  </si>
+  <si>
+    <t>Related Content</t>
+  </si>
+  <si>
+    <t>Label at the bottom of stories above links to related content</t>
+  </si>
+  <si>
+    <t>Approved by Arash</t>
+  </si>
+  <si>
+    <t>Your connection to VOA is private, secure, and anonymous.</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Sub-heading in the My Settings section where users can see the stories they have "favorited"</t>
+  </si>
+  <si>
+    <t>Swipe left to delete</t>
+  </si>
+  <si>
+    <t>Allows users to delete stories in their Favorites</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Action button for deleting a story from Favorites</t>
+  </si>
+  <si>
+    <t>در حال بارگذاری</t>
+  </si>
+  <si>
+    <t>تنظیم‌های صدا</t>
+  </si>
+  <si>
+    <t>جستجوی ایمن</t>
+  </si>
+  <si>
+    <t>افشاگر</t>
+  </si>
+  <si>
+    <t>اشکالی ایجاد شده است</t>
+  </si>
+  <si>
+    <t>دوباره تلاش کنید</t>
+  </si>
+  <si>
+    <t>مطالب مرتبط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارتباط شما با صدای آمریکا محرمانه، امن و ناشناس است. </t>
+  </si>
+  <si>
+    <t>موردعلاقه</t>
+  </si>
+  <si>
+    <t>به چپ بکشید تا پاک شود</t>
+  </si>
+  <si>
+    <t>پاک کردن</t>
   </si>
 </sst>
 </file>
@@ -606,8 +702,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -653,7 +749,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,10 +763,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -683,6 +775,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -713,6 +812,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -981,712 +1083,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="160.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="160.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+    <row r="19" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B19" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B26" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B34" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B36" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B38" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B40" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B42" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B44" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B46" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B48" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B52" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B53" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B54" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B55" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C55" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B56" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B57" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B58" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B60" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B61" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B62" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B63" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B64" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B65" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B66" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B67" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C67" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C68" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B69" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B70" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B71" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B72" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B73" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B74" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B75" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B76" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C77" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B78" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B79" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B80" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B81" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+    <row r="82" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="1:3" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B83" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>85</v>
       </c>
     </row>

--- a/assets/Farsi Translations Mobile App.xlsx
+++ b/assets/Farsi Translations Mobile App.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asigarchi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartridgway/Dropbox/Excella/VOA/Designs/Translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1676F432-A914-DB43-835D-76BD0D7167C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="245">
   <si>
     <t>English</t>
   </si>
@@ -554,27 +555,12 @@
     <t>Loading…</t>
   </si>
   <si>
-    <t>Shown sent content is loading</t>
-  </si>
-  <si>
-    <t>Audio Settings</t>
-  </si>
-  <si>
-    <t>Heading for Audio Settings screen</t>
-  </si>
-  <si>
     <t>Safe Browsing</t>
   </si>
   <si>
     <t>Label for switching Psiphon on/off</t>
   </si>
   <si>
-    <t>Spotlight</t>
-  </si>
-  <si>
-    <t>Label for curated or Spotlight content that will replace the Breaking News content if we decide to go that way</t>
-  </si>
-  <si>
     <t>Something went wrong</t>
   </si>
   <si>
@@ -620,15 +606,6 @@
     <t>در حال بارگذاری</t>
   </si>
   <si>
-    <t>تنظیم‌های صدا</t>
-  </si>
-  <si>
-    <t>جستجوی ایمن</t>
-  </si>
-  <si>
-    <t>افشاگر</t>
-  </si>
-  <si>
     <t>اشکالی ایجاد شده است</t>
   </si>
   <si>
@@ -647,14 +624,149 @@
     <t>به چپ بکشید تا پاک شود</t>
   </si>
   <si>
-    <t>پاک کردن</t>
+    <t>Shown when content is loading</t>
+  </si>
+  <si>
+    <t>Our Best Guesses - please correct and remove this label</t>
+  </si>
+  <si>
+    <t>Editor's Choice</t>
+  </si>
+  <si>
+    <t>Label for Editor's Choice content</t>
+  </si>
+  <si>
+    <t>&lt;Language for Initial Welcome Screen&gt;</t>
+  </si>
+  <si>
+    <t>Used only the first time a user opens an app. It describes that this is a Mandarin-only app for VOA news. This screen is also used after the user clicks the Panic Button. For example, "Welcome to the Mandarin Voice of America (VOA) app!  VOA is the largest U.S. international broadcaster, providing news and information in more than 40 languages to an estimated weekly audience of 236.8 million people. VOA produces content for digital, television, and radio platforms. It is easily accessed via your mobile phone and on social media. It is also distributed by satellite, cable, FM and MW, and is carried on a network of approximately 3,000 affiliate stations."</t>
+  </si>
+  <si>
+    <t>Click anywhere to start</t>
+  </si>
+  <si>
+    <t>Used at the bottom of the Initial Welcome screen so the user can get started</t>
+  </si>
+  <si>
+    <t>&lt;Explanation of Circumvention&gt;</t>
+  </si>
+  <si>
+    <t>This will be its own screen. Include explanation of what happens when you click the Panic Button. For example, "Voice of America uses "circumvention" VPN technology  by Psiphon to encrypt the news stories we deliver to you. Psiphon prevents outside observers from determining your IP address, identity, and location. This technology is trusted by over 10 million users." OR "Your connection to VOA is private, secure, and anonymous."</t>
+  </si>
+  <si>
+    <t>&lt;Language for Panic Button&gt;</t>
+  </si>
+  <si>
+    <t>Short phrase that starts the initialization process and takes user to Panic Button screen</t>
+  </si>
+  <si>
+    <t>&lt;Language for Panic Button Screen&gt;</t>
+  </si>
+  <si>
+    <t>When the user clicks the Panic Button they are taken to this screen that explains what will happen when they proceed: The app is taken back to its initial state. That means any "Favorited" stories are lost as are any custom settings, like the priority of the categories.</t>
+  </si>
+  <si>
+    <t>&lt;Language for proceeding with initializing the app&gt;</t>
+  </si>
+  <si>
+    <t>Used on a button at the bottom of the Panic Button screen. User must tap this to proceed with initializing the app.</t>
+  </si>
+  <si>
+    <t>&lt;Language for empty MM screen&gt;</t>
+  </si>
+  <si>
+    <t>Used when the user clicks the MM player button but before they have selected a video or audio story. It explains how the MM player works. For example, "This is the VOA multimedia player. When you select a story that has accompanying audio or video it plays here. You can always view the original story or find new stories without stopping the audio or video by swiping down on this page. Open this screen again by swiping up from the round multimedia button at the bottom of the screen. Start and stop the audio or video by tapping the multimedia button."</t>
+  </si>
+  <si>
+    <t>&lt;Language for empty Editor's Choice screen&gt;</t>
+  </si>
+  <si>
+    <t>Used when the user goes to the Editor's Choice section but there's no new content</t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>Used in the bottom navigation to take users to the different listings of Programs</t>
+  </si>
+  <si>
+    <t>Video Programs</t>
+  </si>
+  <si>
+    <t>Audio Programs</t>
+  </si>
+  <si>
+    <t>Label for tab on the Programs screen that lists all on-demand Video Programs</t>
+  </si>
+  <si>
+    <t>Label for tab on the Programs screen that lists all on-demand Audio Programs</t>
+  </si>
+  <si>
+    <t>Live Video</t>
+  </si>
+  <si>
+    <t>Label for tab on the Programs screen that shows the current live program</t>
+  </si>
+  <si>
+    <t>برنامه ها</t>
+  </si>
+  <si>
+    <t>Up Next</t>
+  </si>
+  <si>
+    <t>Used below the current live program that's playing to show the next programs coming up</t>
+  </si>
+  <si>
+    <t>Playing Now</t>
+  </si>
+  <si>
+    <t>در حال پخش</t>
+  </si>
+  <si>
+    <t>Shows on the video that is currently playing live</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Font size</t>
+  </si>
+  <si>
+    <t>کوچک</t>
+  </si>
+  <si>
+    <t>بزرگ</t>
+  </si>
+  <si>
+    <t>به صدای آمریکا خوش آمدید</t>
+  </si>
+  <si>
+    <t>جستجوی امن</t>
+  </si>
+  <si>
+    <t>انتخاب سردبیر</t>
+  </si>
+  <si>
+    <t>برنامه شنیداری</t>
+  </si>
+  <si>
+    <t>برنامه  بعدی</t>
+  </si>
+  <si>
+    <t>ویدئوی انتخابی</t>
+  </si>
+  <si>
+    <t>پاک شود</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -708,13 +820,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -749,9 +894,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -780,8 +924,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1082,847 +1247,1019 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="160.796875" customWidth="1"/>
+    <col min="1" max="1" width="30" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="160.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="C20" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B34" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B35" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="36" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B36" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B37" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B38" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B39" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B40" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B41" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B42" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B43" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B44" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B45" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B46" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B47" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B48" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B49" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B50" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B51" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B52" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B53" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B54" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B55" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B56" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B57" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B58" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B59" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B60" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B61" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B62" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C62" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B63" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B64" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B65" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B66" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B67" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B68" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B69" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B70" s="22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B71" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B72" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B73" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C73" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B74" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C74" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B75" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B76" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B77" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C77" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B78" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C78" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B79" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B80" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+    <row r="81" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B81" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B82" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C82" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B83" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C83" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B84" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B85" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    <row r="86" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B86" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B87" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C87" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B88" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C88" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B89" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+    <row r="90" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B90" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B91" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B92" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B93" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C93" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B94" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+    <row r="95" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B95" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B96" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C96" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B97" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B98" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+    <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="14"/>
-    </row>
-    <row r="83" spans="1:3" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="B99" s="22"/>
+    </row>
+    <row r="100" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assets/Farsi Translations Mobile App.xlsx
+++ b/assets/Farsi Translations Mobile App.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartridgway/Dropbox/Excella/VOA/Designs/Translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1676F432-A914-DB43-835D-76BD0D7167C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E0569-FE88-214C-AFFA-57AD57A57F88}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="246">
   <si>
     <t>English</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>پاک شود</t>
+  </si>
+  <si>
+    <t>گزینه‌ای انتخاب نشده است</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1354,7 +1357,9 @@
       <c r="A12" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="C12" s="11" t="s">
         <v>218</v>
       </c>

--- a/assets/Farsi Translations Mobile App.xlsx
+++ b/assets/Farsi Translations Mobile App.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartridgway/Dropbox/Excella/VOA/Designs/Translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E0569-FE88-214C-AFFA-57AD57A57F88}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B8AFF-5855-034B-A34E-F5E1E83C3CF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="252">
   <si>
     <t>English</t>
   </si>
@@ -763,6 +763,24 @@
   </si>
   <si>
     <t>گزینه‌ای انتخاب نشده است</t>
+  </si>
+  <si>
+    <t>Remove All</t>
+  </si>
+  <si>
+    <t>حذف همه</t>
+  </si>
+  <si>
+    <t>Used for button on Favorites screen</t>
+  </si>
+  <si>
+    <t>تلويزيون</t>
+  </si>
+  <si>
+    <t>Used for on-demand video on Programs screen</t>
+  </si>
+  <si>
+    <t>TV Programs</t>
   </si>
 </sst>
 </file>
@@ -1251,11 +1269,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1572,694 +1588,726 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="A32" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B38" s="21" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>3</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>26</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>7</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>147</v>
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>21</v>
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>100</v>
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>42</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>93</v>
+        <v>143</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>47</v>
+        <v>144</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>56</v>
+        <v>151</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>58</v>
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="C81" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" t="s">
-        <v>61</v>
+        <v>155</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>63</v>
+        <v>156</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>64</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="C86" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>96</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>78</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>80</v>
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="22"/>
-    </row>
-    <row r="100" spans="1:3" ht="208" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
+      <c r="B103" s="22"/>
+    </row>
+    <row r="104" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B104" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>85</v>
       </c>
     </row>

--- a/assets/Farsi Translations Mobile App.xlsx
+++ b/assets/Farsi Translations Mobile App.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartridgway/Dropbox/Excella/VOA/Designs/Translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B8AFF-5855-034B-A34E-F5E1E83C3CF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB9919-0FEC-9C4B-9BFB-31239175B0EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="255">
   <si>
     <t>English</t>
   </si>
@@ -781,6 +781,15 @@
   </si>
   <si>
     <t>TV Programs</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>رهسپار شدن</t>
+  </si>
+  <si>
+    <t>Used on the screen that's shown the first time a user opens the app (necessary for post panic-button push)</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1610,9 +1621,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
